--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H2">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I2">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J2">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08892266666666666</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N2">
-        <v>0.266768</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O2">
-        <v>0.02800685389345641</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P2">
-        <v>0.02800685389345641</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q2">
-        <v>1.760664887402666</v>
+        <v>7.515341963844</v>
       </c>
       <c r="R2">
-        <v>15.845983986624</v>
+        <v>67.63807767459599</v>
       </c>
       <c r="S2">
-        <v>0.004304231446831324</v>
+        <v>0.01794523719449601</v>
       </c>
       <c r="T2">
-        <v>0.004304231446831322</v>
+        <v>0.01794523719449602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H3">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I3">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J3">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.156485</v>
       </c>
       <c r="O3">
-        <v>0.7513293565409361</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P3">
-        <v>0.7513293565409359</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q3">
-        <v>47.23269603822</v>
+        <v>79.98119124534</v>
       </c>
       <c r="R3">
-        <v>425.09426434398</v>
+        <v>719.83072120806</v>
       </c>
       <c r="S3">
-        <v>0.1154680013561472</v>
+        <v>0.190980191573591</v>
       </c>
       <c r="T3">
-        <v>0.1154680013561471</v>
+        <v>0.1909801915735911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H4">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I4">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J4">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,43 +685,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6874393333333333</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N4">
-        <v>2.062318</v>
+        <v>1.709816</v>
       </c>
       <c r="O4">
-        <v>0.216514120538615</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P4">
-        <v>0.216514120538615</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q4">
-        <v>13.61126855266933</v>
+        <v>19.108978847904</v>
       </c>
       <c r="R4">
-        <v>122.501416974024</v>
+        <v>171.980809631136</v>
       </c>
       <c r="S4">
-        <v>0.03327495797459321</v>
+        <v>0.04562868324821347</v>
       </c>
       <c r="T4">
-        <v>0.0332749579745932</v>
+        <v>0.04562868324821349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.799956</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H5">
-        <v>59.399868</v>
+        <v>189.568985</v>
       </c>
       <c r="I5">
-        <v>0.1536849323813902</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J5">
-        <v>0.1536849323813902</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01317533333333333</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N5">
-        <v>0.039526</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O5">
-        <v>0.004149669026992586</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P5">
-        <v>0.004149669026992585</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q5">
-        <v>0.2608710202853333</v>
+        <v>14.16398372580389</v>
       </c>
       <c r="R5">
-        <v>2.347839182568</v>
+        <v>127.475853532235</v>
       </c>
       <c r="S5">
-        <v>0.0006377416038185048</v>
+        <v>0.03382095569321564</v>
       </c>
       <c r="T5">
-        <v>0.0006377416038185046</v>
+        <v>0.03382095569321566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>189.568985</v>
       </c>
       <c r="I6">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J6">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08892266666666666</v>
+        <v>2.385495</v>
       </c>
       <c r="N6">
-        <v>0.266768</v>
+        <v>7.156485</v>
       </c>
       <c r="O6">
-        <v>0.02800685389345641</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P6">
-        <v>0.02800685389345641</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q6">
-        <v>5.618993221164444</v>
+        <v>150.738621957525</v>
       </c>
       <c r="R6">
-        <v>50.57093899048</v>
+        <v>1356.647597617725</v>
       </c>
       <c r="S6">
-        <v>0.01373654208425001</v>
+        <v>0.359935760530005</v>
       </c>
       <c r="T6">
-        <v>0.01373654208425001</v>
+        <v>0.3599357605300051</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>189.568985</v>
       </c>
       <c r="I7">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J7">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.385495</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N7">
-        <v>7.156485</v>
+        <v>1.709816</v>
       </c>
       <c r="O7">
-        <v>0.7513293565409361</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P7">
-        <v>0.7513293565409359</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q7">
-        <v>150.738621957525</v>
+        <v>36.01423151741778</v>
       </c>
       <c r="R7">
-        <v>1356.647597617725</v>
+        <v>324.12808365676</v>
       </c>
       <c r="S7">
-        <v>0.3685050582446319</v>
+        <v>0.0859952787333965</v>
       </c>
       <c r="T7">
-        <v>0.3685050582446317</v>
+        <v>0.08599527873339653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>63.18966166666667</v>
+        <v>13.967026</v>
       </c>
       <c r="H8">
-        <v>189.568985</v>
+        <v>41.901078</v>
       </c>
       <c r="I8">
-        <v>0.4904707303614508</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J8">
-        <v>0.4904707303614508</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,43 +933,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6874393333333333</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N8">
-        <v>2.062318</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O8">
-        <v>0.216514120538615</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P8">
-        <v>0.216514120538615</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q8">
-        <v>43.43905888969222</v>
+        <v>3.130713533575333</v>
       </c>
       <c r="R8">
-        <v>390.95153000723</v>
+        <v>28.17642180217799</v>
       </c>
       <c r="S8">
-        <v>0.1061938388341417</v>
+        <v>0.007475560954952482</v>
       </c>
       <c r="T8">
-        <v>0.1061938388341417</v>
+        <v>0.007475560954952484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>63.18966166666667</v>
+        <v>13.967026</v>
       </c>
       <c r="H9">
-        <v>189.568985</v>
+        <v>41.901078</v>
       </c>
       <c r="I9">
-        <v>0.4904707303614508</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J9">
-        <v>0.4904707303614508</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01317533333333333</v>
+        <v>2.385495</v>
       </c>
       <c r="N9">
-        <v>0.039526</v>
+        <v>7.156485</v>
       </c>
       <c r="O9">
-        <v>0.004149669026992586</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P9">
-        <v>0.004149669026992585</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q9">
-        <v>0.8325448556788888</v>
+        <v>33.31827068787</v>
       </c>
       <c r="R9">
-        <v>7.492903701109999</v>
+        <v>299.86443619083</v>
       </c>
       <c r="S9">
-        <v>0.002035291198427345</v>
+        <v>0.07955782628132478</v>
       </c>
       <c r="T9">
-        <v>0.002035291198427344</v>
+        <v>0.07955782628132479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H10">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I10">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J10">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08892266666666666</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N10">
-        <v>0.266768</v>
+        <v>1.709816</v>
       </c>
       <c r="O10">
-        <v>0.02800685389345641</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P10">
-        <v>0.02800685389345641</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q10">
-        <v>1.165023607472</v>
+        <v>7.960348175738667</v>
       </c>
       <c r="R10">
-        <v>10.485212467248</v>
+        <v>71.643133581648</v>
       </c>
       <c r="S10">
-        <v>0.002848089539048679</v>
+        <v>0.01900782916488047</v>
       </c>
       <c r="T10">
-        <v>0.002848089539048678</v>
+        <v>0.01900782916488047</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.101537</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H11">
-        <v>39.304611</v>
+        <v>29.942328</v>
       </c>
       <c r="I11">
-        <v>0.1016925910308731</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J11">
-        <v>0.1016925910308731</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.385495</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N11">
-        <v>7.156485</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O11">
-        <v>0.7513293565409361</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P11">
-        <v>0.7513293565409359</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q11">
-        <v>31.253651005815</v>
+        <v>2.237194267325333</v>
       </c>
       <c r="R11">
-        <v>281.282859052335</v>
+        <v>20.13474840592799</v>
       </c>
       <c r="S11">
-        <v>0.07640462898420645</v>
+        <v>0.005342003327388866</v>
       </c>
       <c r="T11">
-        <v>0.07640462898420643</v>
+        <v>0.005342003327388868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.101537</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H12">
-        <v>39.304611</v>
+        <v>29.942328</v>
       </c>
       <c r="I12">
-        <v>0.1016925910308731</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J12">
-        <v>0.1016925910308731</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6874393333333333</v>
+        <v>2.385495</v>
       </c>
       <c r="N12">
-        <v>2.062318</v>
+        <v>7.156485</v>
       </c>
       <c r="O12">
-        <v>0.216514120538615</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P12">
-        <v>0.216514120538615</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q12">
-        <v>9.006511860922</v>
+        <v>23.80909124412</v>
       </c>
       <c r="R12">
-        <v>81.058606748298</v>
+        <v>214.28182119708</v>
       </c>
       <c r="S12">
-        <v>0.02201788191234253</v>
+        <v>0.05685167645286945</v>
       </c>
       <c r="T12">
-        <v>0.02201788191234253</v>
+        <v>0.05685167645286947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.101537</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H13">
-        <v>39.304611</v>
+        <v>29.942328</v>
       </c>
       <c r="I13">
-        <v>0.1016925910308731</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J13">
-        <v>0.1016925910308731</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01317533333333333</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N13">
-        <v>0.039526</v>
+        <v>1.709816</v>
       </c>
       <c r="O13">
-        <v>0.004149669026992586</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P13">
-        <v>0.004149669026992585</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q13">
-        <v>0.172617117154</v>
+        <v>5.688430165738667</v>
       </c>
       <c r="R13">
-        <v>1.553554054386</v>
+        <v>51.19587149164799</v>
       </c>
       <c r="S13">
-        <v>0.0004219905952754381</v>
+        <v>0.01358291200581562</v>
       </c>
       <c r="T13">
-        <v>0.000421990595275438</v>
+        <v>0.01358291200581563</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.82198533333333</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H14">
-        <v>47.465956</v>
+        <v>6.044084</v>
       </c>
       <c r="I14">
-        <v>0.1228083913970658</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J14">
-        <v>0.1228083913970657</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08892266666666666</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N14">
-        <v>0.266768</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O14">
-        <v>0.02800685389345641</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P14">
-        <v>0.02800685389345641</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q14">
-        <v>1.406933127800889</v>
+        <v>0.4515944810982222</v>
       </c>
       <c r="R14">
-        <v>12.662398150208</v>
+        <v>4.064350329883999</v>
       </c>
       <c r="S14">
-        <v>0.00343947667474803</v>
+        <v>0.001078323530455541</v>
       </c>
       <c r="T14">
-        <v>0.003439476674748029</v>
+        <v>0.001078323530455542</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.82198533333333</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H15">
-        <v>47.465956</v>
+        <v>6.044084</v>
       </c>
       <c r="I15">
-        <v>0.1228083913970658</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J15">
-        <v>0.1228083913970657</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>7.156485</v>
       </c>
       <c r="O15">
-        <v>0.7513293565409361</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P15">
-        <v>0.7513293565409359</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q15">
-        <v>37.74326690274</v>
+        <v>4.806044053860001</v>
       </c>
       <c r="R15">
-        <v>339.68940212466</v>
+        <v>43.25439648474</v>
       </c>
       <c r="S15">
-        <v>0.09226954968618485</v>
+        <v>0.01147593827781077</v>
       </c>
       <c r="T15">
-        <v>0.09226954968618481</v>
+        <v>0.01147593827781077</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.82198533333333</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H16">
-        <v>47.465956</v>
+        <v>6.044084</v>
       </c>
       <c r="I16">
-        <v>0.1228083913970658</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J16">
-        <v>0.1228083913970657</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6874393333333333</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N16">
-        <v>2.062318</v>
+        <v>1.709816</v>
       </c>
       <c r="O16">
-        <v>0.216514120538615</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P16">
-        <v>0.216514120538615</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q16">
-        <v>10.87665504955644</v>
+        <v>1.148252392060445</v>
       </c>
       <c r="R16">
-        <v>97.889895446008</v>
+        <v>10.334271528544</v>
       </c>
       <c r="S16">
-        <v>0.0265897508580977</v>
+        <v>0.002741812898708415</v>
       </c>
       <c r="T16">
-        <v>0.0265897508580977</v>
+        <v>0.002741812898708416</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.82198533333333</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H17">
-        <v>47.465956</v>
+        <v>27.098674</v>
       </c>
       <c r="I17">
-        <v>0.1228083913970658</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J17">
-        <v>0.1228083913970657</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.01317533333333333</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N17">
-        <v>0.039526</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O17">
-        <v>0.004149669026992586</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P17">
-        <v>0.004149669026992585</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q17">
-        <v>0.2084599307617777</v>
+        <v>2.024725603330444</v>
       </c>
       <c r="R17">
-        <v>1.876139376856</v>
+        <v>18.222530429974</v>
       </c>
       <c r="S17">
-        <v>0.0005096141780351866</v>
+        <v>0.004834667721087892</v>
       </c>
       <c r="T17">
-        <v>0.0005096141780351863</v>
+        <v>0.004834667721087892</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.473084</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H18">
-        <v>7.419252</v>
+        <v>27.098674</v>
       </c>
       <c r="I18">
-        <v>0.01919578747111852</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J18">
-        <v>0.01919578747111852</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.08892266666666666</v>
+        <v>2.385495</v>
       </c>
       <c r="N18">
-        <v>0.266768</v>
+        <v>7.156485</v>
       </c>
       <c r="O18">
-        <v>0.02800685389345641</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P18">
-        <v>0.02800685389345641</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q18">
-        <v>0.2199132241706667</v>
+        <v>21.54791711121</v>
       </c>
       <c r="R18">
-        <v>1.979219017536</v>
+        <v>193.93125400089</v>
       </c>
       <c r="S18">
-        <v>0.0005376136150734576</v>
+        <v>0.05145241367170201</v>
       </c>
       <c r="T18">
-        <v>0.0005376136150734575</v>
+        <v>0.05145241367170202</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.473084</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H19">
-        <v>7.419252</v>
+        <v>27.098674</v>
       </c>
       <c r="I19">
-        <v>0.01919578747111852</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J19">
-        <v>0.01919578747111852</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.385495</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N19">
-        <v>7.156485</v>
+        <v>1.709816</v>
       </c>
       <c r="O19">
-        <v>0.7513293565409361</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P19">
-        <v>0.7513293565409359</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q19">
-        <v>5.89952951658</v>
+        <v>5.14819404266489</v>
       </c>
       <c r="R19">
-        <v>53.09576564922</v>
+        <v>46.333746383984</v>
       </c>
       <c r="S19">
-        <v>0.01442235864897204</v>
+        <v>0.01229292874008607</v>
       </c>
       <c r="T19">
-        <v>0.01442235864897204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.473084</v>
-      </c>
-      <c r="H20">
-        <v>7.419252</v>
-      </c>
-      <c r="I20">
-        <v>0.01919578747111852</v>
-      </c>
-      <c r="J20">
-        <v>0.01919578747111852</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.6874393333333333</v>
-      </c>
-      <c r="N20">
-        <v>2.062318</v>
-      </c>
-      <c r="O20">
-        <v>0.216514120538615</v>
-      </c>
-      <c r="P20">
-        <v>0.216514120538615</v>
-      </c>
-      <c r="Q20">
-        <v>1.700095216237333</v>
-      </c>
-      <c r="R20">
-        <v>15.300856946136</v>
-      </c>
-      <c r="S20">
-        <v>0.004156159042355391</v>
-      </c>
-      <c r="T20">
-        <v>0.00415615904235539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.473084</v>
-      </c>
-      <c r="H21">
-        <v>7.419252</v>
-      </c>
-      <c r="I21">
-        <v>0.01919578747111852</v>
-      </c>
-      <c r="J21">
-        <v>0.01919578747111852</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.01317533333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.039526</v>
-      </c>
-      <c r="O21">
-        <v>0.004149669026992586</v>
-      </c>
-      <c r="P21">
-        <v>0.004149669026992585</v>
-      </c>
-      <c r="Q21">
-        <v>0.03258370606133333</v>
-      </c>
-      <c r="R21">
-        <v>0.293253354552</v>
-      </c>
-      <c r="S21">
-        <v>7.965616471763287E-05</v>
-      </c>
-      <c r="T21">
-        <v>7.965616471763284E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>14.448501</v>
-      </c>
-      <c r="H22">
-        <v>43.345503</v>
-      </c>
-      <c r="I22">
-        <v>0.1121475673581016</v>
-      </c>
-      <c r="J22">
-        <v>0.1121475673581016</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.08892266666666666</v>
-      </c>
-      <c r="N22">
-        <v>0.266768</v>
-      </c>
-      <c r="O22">
-        <v>0.02800685389345641</v>
-      </c>
-      <c r="P22">
-        <v>0.02800685389345641</v>
-      </c>
-      <c r="Q22">
-        <v>1.284799238256</v>
-      </c>
-      <c r="R22">
-        <v>11.563193144304</v>
-      </c>
-      <c r="S22">
-        <v>0.003140900533504914</v>
-      </c>
-      <c r="T22">
-        <v>0.003140900533504914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>14.448501</v>
-      </c>
-      <c r="H23">
-        <v>43.345503</v>
-      </c>
-      <c r="I23">
-        <v>0.1121475673581016</v>
-      </c>
-      <c r="J23">
-        <v>0.1121475673581016</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.385495</v>
-      </c>
-      <c r="N23">
-        <v>7.156485</v>
-      </c>
-      <c r="O23">
-        <v>0.7513293565409361</v>
-      </c>
-      <c r="P23">
-        <v>0.7513293565409359</v>
-      </c>
-      <c r="Q23">
-        <v>34.466826892995</v>
-      </c>
-      <c r="R23">
-        <v>310.201442036955</v>
-      </c>
-      <c r="S23">
-        <v>0.08425975962079379</v>
-      </c>
-      <c r="T23">
-        <v>0.08425975962079375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>14.448501</v>
-      </c>
-      <c r="H24">
-        <v>43.345503</v>
-      </c>
-      <c r="I24">
-        <v>0.1121475673581016</v>
-      </c>
-      <c r="J24">
-        <v>0.1121475673581016</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.6874393333333333</v>
-      </c>
-      <c r="N24">
-        <v>2.062318</v>
-      </c>
-      <c r="O24">
-        <v>0.216514120538615</v>
-      </c>
-      <c r="P24">
-        <v>0.216514120538615</v>
-      </c>
-      <c r="Q24">
-        <v>9.932467895105999</v>
-      </c>
-      <c r="R24">
-        <v>89.39221105595399</v>
-      </c>
-      <c r="S24">
-        <v>0.02428153191708446</v>
-      </c>
-      <c r="T24">
-        <v>0.02428153191708446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>14.448501</v>
-      </c>
-      <c r="H25">
-        <v>43.345503</v>
-      </c>
-      <c r="I25">
-        <v>0.1121475673581016</v>
-      </c>
-      <c r="J25">
-        <v>0.1121475673581016</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.01317533333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.039526</v>
-      </c>
-      <c r="O25">
-        <v>0.004149669026992586</v>
-      </c>
-      <c r="P25">
-        <v>0.004149669026992585</v>
-      </c>
-      <c r="Q25">
-        <v>0.190363816842</v>
-      </c>
-      <c r="R25">
-        <v>1.713274351578</v>
-      </c>
-      <c r="S25">
-        <v>0.0004653752867184791</v>
-      </c>
-      <c r="T25">
-        <v>0.000465375286718479</v>
+        <v>0.01229292874008607</v>
       </c>
     </row>
   </sheetData>
